--- a/aochart_LaTeX_data.xlsx
+++ b/aochart_LaTeX_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gombe\Desktop\aochart_select_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB526F8-1C6C-461C-A5B5-6C620442D43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190368F-3970-410B-AC8C-5F57DBE9BFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,9 +564,6 @@
   </si>
   <si>
     <t>f(x) が x=1 で微分可能となるように、定数 a, b の値を定めよ。</t>
-  </si>
-  <si>
-    <t>(2) (ア) 関数 f(x), g(x), h(x) が微分可能であるとき、次の公式を証明せよ。 \[\{f(x)g(x)h(x)\}' = f'(x)g(x)h(x) + f(x)g'(x)h(x) + f(x)g(x)h'(x)\]</t>
   </si>
   <si>
     <t>(イ) 関数 y = (x+1)(x-2)(x^2+3) を微分せよ。</t>
@@ -1738,6 +1735,9 @@
   <si>
     <t>(1) 複素数 z が正の実数 r と実数 \theta を用いて z = r(\cos{\theta} + i\sin{\theta}) の形で与えられたとき、数列 \{x_n\}, \{y_n\} がともに0に収束するための必要十分条件を求めよ。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) (ア) 関数 f(x), g(x), h(x) が微分可能であるとき、次の公式を証明せよ。 \{f(x)g(x)h(x)\}' = f'(x)g(x)h(x) + f(x)g'(x)h(x) + f(x)g(x)h'(x)</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2325,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2345,7 +2345,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2362,10 +2362,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" t="s">
         <v>311</v>
-      </c>
-      <c r="F4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2385,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2405,7 +2405,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2422,10 +2422,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" t="s">
         <v>454</v>
-      </c>
-      <c r="F7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2485,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G11" t="s">
         <v>83</v>
@@ -2562,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2588,7 +2588,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2622,13 +2622,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" t="s">
         <v>487</v>
-      </c>
-      <c r="G17" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2648,13 +2648,13 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2674,10 +2674,10 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" t="s">
         <v>321</v>
-      </c>
-      <c r="G19" t="s">
-        <v>322</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -2706,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G20" t="s">
         <v>94</v>
@@ -2746,10 +2746,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" t="s">
         <v>324</v>
-      </c>
-      <c r="F22" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2766,13 +2766,13 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" t="s">
         <v>326</v>
-      </c>
-      <c r="G23" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2789,10 +2789,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2812,16 +2812,16 @@
         <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
       </c>
       <c r="H25" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" t="s">
         <v>330</v>
-      </c>
-      <c r="I25" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2858,7 +2858,7 @@
         <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G27" t="s">
         <v>100</v>
@@ -2881,7 +2881,7 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2898,10 +2898,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" t="s">
         <v>335</v>
-      </c>
-      <c r="F29" t="s">
-        <v>336</v>
       </c>
       <c r="G29" t="s">
         <v>101</v>
@@ -2924,7 +2924,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2947,7 +2947,7 @@
         <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H31" t="s">
         <v>105</v>
@@ -3013,10 +3013,10 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
+        <v>338</v>
+      </c>
+      <c r="G34" t="s">
         <v>339</v>
-      </c>
-      <c r="G34" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3036,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
         <v>111</v>
@@ -3062,7 +3062,7 @@
         <v>112</v>
       </c>
       <c r="G36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3079,7 +3079,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F37" t="s">
         <v>113</v>
@@ -3125,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3205,7 +3205,7 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3222,7 +3222,7 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
         <v>121</v>
@@ -3248,7 +3248,7 @@
         <v>122</v>
       </c>
       <c r="F45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
         <v>123</v>
@@ -3268,10 +3268,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3288,13 +3288,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>500</v>
+      </c>
+      <c r="F47" t="s">
         <v>501</v>
       </c>
-      <c r="F47" t="s">
-        <v>502</v>
-      </c>
       <c r="G47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3314,13 +3314,13 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
+        <v>349</v>
+      </c>
+      <c r="G48" t="s">
         <v>350</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>351</v>
-      </c>
-      <c r="H48" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3340,7 +3340,7 @@
         <v>124</v>
       </c>
       <c r="F49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3357,10 +3357,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" t="s">
         <v>354</v>
-      </c>
-      <c r="F50" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3383,13 +3383,13 @@
         <v>125</v>
       </c>
       <c r="G51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H51" t="s">
         <v>126</v>
       </c>
       <c r="I51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3409,7 +3409,7 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G52" t="s">
         <v>127</v>
@@ -3432,10 +3432,10 @@
         <v>128</v>
       </c>
       <c r="F53" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" t="s">
         <v>359</v>
-      </c>
-      <c r="G53" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3455,13 +3455,13 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
         <v>361</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>362</v>
-      </c>
-      <c r="H54" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3481,13 +3481,13 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" t="s">
         <v>364</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>365</v>
-      </c>
-      <c r="H55" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3507,10 +3507,10 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
+        <v>366</v>
+      </c>
+      <c r="G56" t="s">
         <v>367</v>
-      </c>
-      <c r="G56" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3527,13 +3527,13 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F57" t="s">
         <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H57" t="s">
         <v>130</v>
@@ -3553,7 +3553,7 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F58" t="s">
         <v>131</v>
@@ -3576,7 +3576,7 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F59" t="s">
         <v>133</v>
@@ -3636,7 +3636,7 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G62" t="s">
         <v>137</v>
@@ -3659,7 +3659,7 @@
         <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G63" t="s">
         <v>139</v>
@@ -3682,16 +3682,16 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H64" t="s">
+        <v>502</v>
+      </c>
+      <c r="I64" t="s">
         <v>140</v>
-      </c>
-      <c r="I64" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3711,10 +3711,10 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
+        <v>373</v>
+      </c>
+      <c r="G65" t="s">
         <v>374</v>
-      </c>
-      <c r="G65" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3760,13 +3760,13 @@
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G67" t="s">
+        <v>375</v>
+      </c>
+      <c r="H67" t="s">
         <v>376</v>
-      </c>
-      <c r="H67" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3786,13 +3786,13 @@
         <v>31</v>
       </c>
       <c r="F68" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" t="s">
         <v>304</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>305</v>
-      </c>
-      <c r="H68" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3812,10 +3812,10 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3832,10 +3832,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>378</v>
+      </c>
+      <c r="F70" t="s">
         <v>379</v>
-      </c>
-      <c r="F70" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3855,10 +3855,10 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
+        <v>380</v>
+      </c>
+      <c r="G71" t="s">
         <v>381</v>
-      </c>
-      <c r="G71" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3878,10 +3878,10 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
+        <v>382</v>
+      </c>
+      <c r="G72" t="s">
         <v>383</v>
-      </c>
-      <c r="G72" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3898,13 +3898,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" t="s">
         <v>142</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>143</v>
-      </c>
-      <c r="G73" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3924,10 +3924,10 @@
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3944,10 +3944,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3964,13 +3964,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>385</v>
+      </c>
+      <c r="G76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>386</v>
-      </c>
-      <c r="G76" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3987,7 +3987,7 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4007,13 +4007,13 @@
         <v>39</v>
       </c>
       <c r="F78" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" t="s">
         <v>148</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>149</v>
-      </c>
-      <c r="H78" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4030,7 +4030,7 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4047,7 +4047,7 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -4070,10 +4070,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>387</v>
+      </c>
+      <c r="F81" t="s">
         <v>388</v>
-      </c>
-      <c r="F81" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4090,10 +4090,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>151</v>
+      </c>
+      <c r="F82" t="s">
         <v>152</v>
-      </c>
-      <c r="F82" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4110,10 +4110,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" t="s">
         <v>154</v>
-      </c>
-      <c r="F83" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4133,10 +4133,10 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
+        <v>155</v>
+      </c>
+      <c r="G84" t="s">
         <v>156</v>
-      </c>
-      <c r="G84" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4153,7 +4153,7 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4170,7 +4170,7 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4187,7 +4187,7 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4204,7 +4204,7 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4221,7 +4221,7 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4238,10 +4238,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
         <v>163</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4261,7 +4261,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4278,7 +4278,7 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4298,13 +4298,13 @@
         <v>45</v>
       </c>
       <c r="F93" t="s">
+        <v>390</v>
+      </c>
+      <c r="G93" t="s">
         <v>391</v>
       </c>
-      <c r="G93" t="s">
-        <v>392</v>
-      </c>
       <c r="H93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4321,7 +4321,7 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4341,13 +4341,13 @@
         <v>46</v>
       </c>
       <c r="F95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" t="s">
+        <v>457</v>
+      </c>
+      <c r="H95" t="s">
         <v>168</v>
-      </c>
-      <c r="G95" t="s">
-        <v>458</v>
-      </c>
-      <c r="H95" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4364,13 +4364,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" t="s">
         <v>170</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>171</v>
-      </c>
-      <c r="G96" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4387,7 +4387,7 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4404,7 +4404,7 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4421,7 +4421,7 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4438,13 +4438,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>175</v>
+      </c>
+      <c r="F100" t="s">
         <v>176</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>177</v>
-      </c>
-      <c r="G100" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4461,13 +4461,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" t="s">
         <v>179</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>180</v>
-      </c>
-      <c r="G101" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4484,7 +4484,7 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4501,7 +4501,7 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4518,7 +4518,7 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4552,7 +4552,7 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4569,7 +4569,7 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4586,7 +4586,7 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4603,7 +4603,7 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4620,7 +4620,7 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4637,7 +4637,7 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4654,7 +4654,7 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4674,10 +4674,10 @@
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G113" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4694,13 +4694,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>188</v>
+      </c>
+      <c r="F114" t="s">
         <v>189</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>190</v>
-      </c>
-      <c r="G114" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4717,10 +4717,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4737,7 +4737,7 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4754,7 +4754,7 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4771,7 +4771,7 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4788,7 +4788,7 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4805,7 +4805,7 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4822,13 +4822,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>195</v>
+      </c>
+      <c r="F121" t="s">
         <v>196</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>197</v>
-      </c>
-      <c r="G121" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4845,7 +4845,7 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4862,7 +4862,7 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4882,13 +4882,13 @@
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G124" t="s">
         <v>50</v>
       </c>
       <c r="H124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4905,7 +4905,7 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F125" t="s">
         <v>51</v>
@@ -4928,7 +4928,7 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4968,10 +4968,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>202</v>
+      </c>
+      <c r="F128" t="s">
         <v>203</v>
-      </c>
-      <c r="F128" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4988,13 +4988,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>204</v>
+      </c>
+      <c r="F129" t="s">
         <v>205</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>206</v>
-      </c>
-      <c r="G129" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5014,16 +5014,16 @@
         <v>58</v>
       </c>
       <c r="F130" t="s">
+        <v>397</v>
+      </c>
+      <c r="G130" t="s">
         <v>398</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>399</v>
       </c>
-      <c r="H130" t="s">
-        <v>400</v>
-      </c>
       <c r="I130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5040,13 +5040,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>208</v>
+      </c>
+      <c r="F131" t="s">
         <v>209</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>210</v>
-      </c>
-      <c r="G131" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5063,7 +5063,7 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5083,16 +5083,16 @@
         <v>58</v>
       </c>
       <c r="F133" t="s">
+        <v>212</v>
+      </c>
+      <c r="G133" t="s">
+        <v>400</v>
+      </c>
+      <c r="H133" t="s">
+        <v>401</v>
+      </c>
+      <c r="I133" t="s">
         <v>213</v>
-      </c>
-      <c r="G133" t="s">
-        <v>401</v>
-      </c>
-      <c r="H133" t="s">
-        <v>402</v>
-      </c>
-      <c r="I133" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5112,10 +5112,10 @@
         <v>59</v>
       </c>
       <c r="F134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G134" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5135,13 +5135,13 @@
         <v>58</v>
       </c>
       <c r="F135" t="s">
+        <v>403</v>
+      </c>
+      <c r="G135" t="s">
+        <v>215</v>
+      </c>
+      <c r="H135" t="s">
         <v>404</v>
-      </c>
-      <c r="G135" t="s">
-        <v>216</v>
-      </c>
-      <c r="H135" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5161,13 +5161,13 @@
         <v>59</v>
       </c>
       <c r="F136" t="s">
+        <v>216</v>
+      </c>
+      <c r="G136" t="s">
         <v>217</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>218</v>
-      </c>
-      <c r="H136" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5187,13 +5187,13 @@
         <v>58</v>
       </c>
       <c r="F137" t="s">
+        <v>219</v>
+      </c>
+      <c r="G137" t="s">
         <v>220</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>221</v>
-      </c>
-      <c r="H137" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5210,7 +5210,7 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5227,10 +5227,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F139" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5250,13 +5250,13 @@
         <v>58</v>
       </c>
       <c r="F140" t="s">
+        <v>405</v>
+      </c>
+      <c r="G140" t="s">
         <v>406</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>407</v>
-      </c>
-      <c r="H140" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5276,13 +5276,13 @@
         <v>58</v>
       </c>
       <c r="F141" t="s">
+        <v>408</v>
+      </c>
+      <c r="G141" t="s">
+        <v>224</v>
+      </c>
+      <c r="H141" t="s">
         <v>409</v>
-      </c>
-      <c r="G141" t="s">
-        <v>225</v>
-      </c>
-      <c r="H141" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5299,13 +5299,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>225</v>
+      </c>
+      <c r="F142" t="s">
+        <v>410</v>
+      </c>
+      <c r="G142" t="s">
         <v>226</v>
-      </c>
-      <c r="F142" t="s">
-        <v>411</v>
-      </c>
-      <c r="G142" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5325,13 +5325,13 @@
         <v>58</v>
       </c>
       <c r="F143" t="s">
+        <v>227</v>
+      </c>
+      <c r="G143" t="s">
         <v>228</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>229</v>
-      </c>
-      <c r="H143" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5351,10 +5351,10 @@
         <v>58</v>
       </c>
       <c r="F144" t="s">
+        <v>411</v>
+      </c>
+      <c r="G144" t="s">
         <v>412</v>
-      </c>
-      <c r="G144" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5371,7 +5371,7 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5391,16 +5391,16 @@
         <v>60</v>
       </c>
       <c r="F146" t="s">
+        <v>414</v>
+      </c>
+      <c r="G146" t="s">
         <v>415</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>416</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>417</v>
-      </c>
-      <c r="I146" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5417,7 +5417,7 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5434,7 +5434,7 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5454,10 +5454,10 @@
         <v>60</v>
       </c>
       <c r="F149" t="s">
+        <v>418</v>
+      </c>
+      <c r="G149" t="s">
         <v>419</v>
-      </c>
-      <c r="G149" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5474,13 +5474,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F150" t="s">
+        <v>420</v>
+      </c>
+      <c r="G150" t="s">
         <v>421</v>
-      </c>
-      <c r="G150" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5500,10 +5500,10 @@
         <v>61</v>
       </c>
       <c r="F151" t="s">
+        <v>422</v>
+      </c>
+      <c r="G151" t="s">
         <v>423</v>
-      </c>
-      <c r="G151" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5520,13 +5520,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F152" t="s">
+        <v>424</v>
+      </c>
+      <c r="G152" t="s">
         <v>425</v>
-      </c>
-      <c r="G152" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5543,13 +5543,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>233</v>
+      </c>
+      <c r="F153" t="s">
         <v>234</v>
       </c>
-      <c r="F153" t="s">
-        <v>235</v>
-      </c>
       <c r="G153" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5566,10 +5566,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>427</v>
+      </c>
+      <c r="F154" t="s">
         <v>428</v>
-      </c>
-      <c r="F154" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5589,10 +5589,10 @@
         <v>60</v>
       </c>
       <c r="F155" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G155" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5609,7 +5609,7 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5626,13 +5626,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>493</v>
+      </c>
+      <c r="F157" t="s">
         <v>494</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>495</v>
-      </c>
-      <c r="G157" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5655,10 +5655,10 @@
         <v>63</v>
       </c>
       <c r="G158" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H158" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5675,10 +5675,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G159" t="s">
         <v>64</v>
@@ -5701,10 +5701,10 @@
         <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G160" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5721,13 +5721,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>239</v>
+      </c>
+      <c r="F161" t="s">
         <v>240</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>241</v>
-      </c>
-      <c r="G161" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5744,7 +5744,7 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5761,10 +5761,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5781,7 +5781,7 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5801,10 +5801,10 @@
         <v>25</v>
       </c>
       <c r="F165" t="s">
+        <v>434</v>
+      </c>
+      <c r="G165" t="s">
         <v>435</v>
-      </c>
-      <c r="G165" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5824,10 +5824,10 @@
         <v>25</v>
       </c>
       <c r="F166" t="s">
+        <v>436</v>
+      </c>
+      <c r="G166" t="s">
         <v>437</v>
-      </c>
-      <c r="G166" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5847,7 +5847,7 @@
         <v>25</v>
       </c>
       <c r="F167" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5870,7 +5870,7 @@
         <v>66</v>
       </c>
       <c r="G168" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5887,7 +5887,7 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5907,13 +5907,13 @@
         <v>67</v>
       </c>
       <c r="F170" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G170" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H170" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5933,7 +5933,7 @@
         <v>68</v>
       </c>
       <c r="F171" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5950,13 +5950,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F172" t="s">
+        <v>243</v>
+      </c>
+      <c r="G172" t="s">
         <v>244</v>
-      </c>
-      <c r="G172" t="s">
-        <v>245</v>
       </c>
       <c r="H172" t="s">
         <v>102</v>
@@ -5979,10 +5979,10 @@
         <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G173" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5999,10 +5999,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>465</v>
+      </c>
+      <c r="F174" t="s">
         <v>466</v>
-      </c>
-      <c r="F174" t="s">
-        <v>467</v>
       </c>
       <c r="G174" t="s">
         <v>69</v>
@@ -6022,10 +6022,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F175" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6048,7 +6048,7 @@
         <v>71</v>
       </c>
       <c r="G176" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6068,10 +6068,10 @@
         <v>72</v>
       </c>
       <c r="F177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G177" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6088,7 +6088,7 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6108,10 +6108,10 @@
         <v>72</v>
       </c>
       <c r="F179" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G179" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6128,7 +6128,7 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6145,7 +6145,7 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F181" t="s">
         <v>73</v>
@@ -6168,7 +6168,7 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6185,7 +6185,7 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6202,7 +6202,7 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6219,13 +6219,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>251</v>
+      </c>
+      <c r="F185" t="s">
+        <v>447</v>
+      </c>
+      <c r="G185" t="s">
         <v>252</v>
-      </c>
-      <c r="F185" t="s">
-        <v>448</v>
-      </c>
-      <c r="G185" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6242,13 +6242,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>253</v>
+      </c>
+      <c r="F186" t="s">
         <v>254</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>255</v>
-      </c>
-      <c r="G186" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6265,7 +6265,7 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6282,13 +6282,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>256</v>
+      </c>
+      <c r="F188" t="s">
         <v>257</v>
       </c>
-      <c r="F188" t="s">
-        <v>258</v>
-      </c>
       <c r="G188" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6305,16 +6305,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F189" t="s">
+        <v>258</v>
+      </c>
+      <c r="G189" t="s">
         <v>259</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>260</v>
-      </c>
-      <c r="H189" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6331,7 +6331,7 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6348,13 +6348,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>261</v>
+      </c>
+      <c r="F191" t="s">
         <v>262</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>263</v>
-      </c>
-      <c r="G191" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6371,7 +6371,7 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6388,7 +6388,7 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6405,7 +6405,7 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6422,13 +6422,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>266</v>
+      </c>
+      <c r="F195" t="s">
         <v>267</v>
       </c>
-      <c r="F195" t="s">
-        <v>268</v>
-      </c>
       <c r="G195" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6445,13 +6445,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>268</v>
+      </c>
+      <c r="F196" t="s">
         <v>269</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>270</v>
-      </c>
-      <c r="G196" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6468,7 +6468,7 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6485,7 +6485,7 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6502,13 +6502,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>273</v>
+      </c>
+      <c r="F199" t="s">
         <v>274</v>
       </c>
-      <c r="F199" t="s">
-        <v>275</v>
-      </c>
       <c r="G199" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6525,7 +6525,7 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6542,13 +6542,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>275</v>
+      </c>
+      <c r="F201" t="s">
         <v>276</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>277</v>
-      </c>
-      <c r="G201" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6565,7 +6565,7 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6582,7 +6582,7 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6602,13 +6602,13 @@
         <v>75</v>
       </c>
       <c r="F204" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G204" t="s">
+        <v>278</v>
+      </c>
+      <c r="H204" t="s">
         <v>279</v>
-      </c>
-      <c r="H204" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6625,7 +6625,7 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6642,13 +6642,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>280</v>
+      </c>
+      <c r="F206" t="s">
         <v>281</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>282</v>
-      </c>
-      <c r="G206" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6682,10 +6682,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F208" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6702,13 +6702,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F209" t="s">
+        <v>481</v>
+      </c>
+      <c r="G209" t="s">
         <v>482</v>
-      </c>
-      <c r="G209" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6725,13 +6725,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>285</v>
+      </c>
+      <c r="F210" t="s">
+        <v>483</v>
+      </c>
+      <c r="G210" t="s">
         <v>286</v>
-      </c>
-      <c r="F210" t="s">
-        <v>484</v>
-      </c>
-      <c r="G210" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6748,10 +6748,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>287</v>
+      </c>
+      <c r="F211" t="s">
         <v>288</v>
-      </c>
-      <c r="F211" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6768,7 +6768,7 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6785,13 +6785,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F213" t="s">
+        <v>290</v>
+      </c>
+      <c r="G213" t="s">
         <v>291</v>
-      </c>
-      <c r="G213" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6808,13 +6808,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>292</v>
+      </c>
+      <c r="F214" t="s">
         <v>293</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>294</v>
-      </c>
-      <c r="G214" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6831,13 +6831,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>295</v>
+      </c>
+      <c r="F215" t="s">
         <v>296</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>297</v>
-      </c>
-      <c r="G215" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6854,7 +6854,7 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/aochart_LaTeX_data.xlsx
+++ b/aochart_LaTeX_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gombe\Desktop\aochart_select_questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2190368F-3970-410B-AC8C-5F57DBE9BFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375A2F6-350D-459F-A6A3-1930ADB85813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数学III" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -299,13 +299,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B(m, n) = \int_0^1 x^{m-1}(1-x)^{n-1} dx \ (m, n は自然数) とする。次のことを証明せよ。</t>
-  </si>
-  <si>
     <t>(1) B(m, n) = B(n, m)</t>
-  </si>
-  <si>
-    <t>\int_a^b f(x) dx + \int_{f(a)}^{f(b)} g(x) dx = bf(b) - af(a)</t>
   </si>
   <si>
     <r>
@@ -424,15 +418,6 @@
     <t>(5) \cos n\pi</t>
   </si>
   <si>
-    <t>(2) \lim_{n \to \infty} \{\log_3(1^2+2^2+\cdots+n^2)-\log_3n^3\}</t>
-  </si>
-  <si>
-    <t>(1) 数列 \{a_n\} (n=1, 2, 3, \cdots) が \lim_{n\to\infty}(3n-1)a_n = -6 を満たすとき、\lim_{n\to\infty} na_n = \boxed{} である。</t>
-  </si>
-  <si>
-    <t>(2) \lim_{n\to\infty} (\sqrt{n^2+an+2} - \sqrt{n^2-n}) = 5 であるとき、定数 a の値を求めよ。</t>
-  </si>
-  <si>
     <t>第 n 項が次の式で表される数列の極限を求めよ。</t>
   </si>
   <si>
@@ -448,9 +433,6 @@
     <t>(2) 数列 \{a_n\} の一般項を求めよ。</t>
   </si>
   <si>
-    <t>(3) \lim_{n \to \infty} a_n を求めよ。</t>
-  </si>
-  <si>
     <t>数列 \{a_n\} が 0 &lt; a_1 &lt; 3, a_{n+1} = 1 + \sqrt{1 + a_n} \ (n = 1, 2, 3, \cdots) を満たすとき</t>
   </si>
   <si>
@@ -470,9 +452,6 @@
   </si>
   <si>
     <t>(2) P_n を p, n で表せ。</t>
-  </si>
-  <si>
-    <t>(3) \lim_{n \to \infty} P_n を求めよ。</t>
   </si>
   <si>
     <t>(2) \cos \pi + \cos 2\pi + \cos 3\pi + \cdots</t>
@@ -503,33 +482,15 @@
     <t>(1) 図形 A_n の辺の数a_nを求めよ。</t>
   </si>
   <si>
-    <t>(2) 図形 A_n の周の長さを l_n とするとき、\lim_{n \to \infty} l_n を求めよ。</t>
-  </si>
-  <si>
-    <t>(3) 図形 A_n の面積を S_n とするとき、\lim_{n \to \infty} S_n を求めよ。</t>
-  </si>
-  <si>
     <t>(1) 級数①の初項から第n項までの部分和を S_n とするとき、S_{2n-1}, S_{2n} をそれぞれ求めよ。</t>
   </si>
   <si>
     <t>(1) すべての自然数 n に対して、2^n &gt; n であることを示せ。</t>
   </si>
   <si>
-    <t>(3) \lim_{n \to \infty} S_n を求めよ。</t>
-  </si>
-  <si>
     <t>次の等式が成り立つように、定数 a, b の値を定めよ。</t>
   </si>
   <si>
-    <t>(1) \lim_{x \to \infty} (x^3 - 3x^2 + 5)</t>
-  </si>
-  <si>
-    <t>(3) \lim_{x \to \infty} (\sqrt{x^2 - x} - x)</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to -\infty} \sqrt{x^2 + 3x + x}</t>
-  </si>
-  <si>
     <t>次の極限値を求めよ。ただし、[x] は x を超えない最大の整数を表す。</t>
   </si>
   <si>
@@ -635,15 +596,9 @@
     <t>(1) f(x) = 2\sqrt{x} を区間 [1, 4] について、平均値の定理の式 \dfrac{f(b) - f(a)}{b - a} = f'(c)、a &lt; c &lt; b を満たす c の値を求めよ。</t>
   </si>
   <si>
-    <t>(2) f(x) = \dfrac{1}{x} (x &gt; 0) のとき、f(a+h) - f(a) = hf'(a + \theta h)、0 &lt; \theta &lt; 1 を満たす \theta を正の数 a, h で表し、\displaystyle \lim_{h \to +0} \theta を求めよ。</t>
-  </si>
-  <si>
     <t>\dfrac{1}{e^2} &lt; a &lt; b &lt; 1 のとき、a - b &lt; b\log b - a\log a &lt; b - a</t>
   </si>
   <si>
-    <t>(3) \displaystyle \lim_{x \to +0} x \log x</t>
-  </si>
-  <si>
     <t>関数 y = \dfrac{x^2 + 3x + 9}{x + 3} の増減を調べよ。</t>
   </si>
   <si>
@@ -671,9 +626,6 @@
     <t>関数 y = \sqrt{4-x^2} - x の最大値と最小値を求めよ。</t>
   </si>
   <si>
-    <t>次の関数に最大値、最小値があれば、それぞれ求めよ。ただし、(2)では必要ならば \lim_{x \to \infty} xe^{-x} = \lim_{x \to \infty} x^2e^{-x} = 0 を用いてもよい。</t>
-  </si>
-  <si>
     <t>(1) y = \dfrac{2x}{x^2+4}</t>
   </si>
   <si>
@@ -728,23 +680,10 @@
     <t>0 &lt; a &lt; b のとき、不等式 \sqrt{ab} &lt; \dfrac{b-a}{\log b - \log a} &lt; \dfrac{a+b}{2} が成り立つことを示せ。</t>
   </si>
   <si>
-    <t>f(x) = -e^x である。実数 b に対して、点 (0, b) を通る、曲線 y = f(x) の接線の本数を求めよ。ただし、\displaystyle \lim_{x \to -\infty} xe^x = 0 を用いてよい。</t>
-    <rPh sb="36" eb="37">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数 f(x) = x^2 \sin \dfrac{\pi}{x^2} (x &gt; 0) について、n を自然数とし、点 (\dfrac{1}{\sqrt{n}}, 0) における曲線 y = f(x) の接線を l_n とする。放物線 y = \dfrac{(-1)^n \pi}{2}x^2 と直線 l_n の交点の座標を (a_n, b_n) (ただし、a_n &gt; 0) とするとき、</t>
   </si>
   <si>
     <t>(1) a_n を n を用いて表せ。</t>
-  </si>
-  <si>
-    <t>(2) 極限値 \displaystyle \lim_{n \to \infty} n |b_n| を求めよ。</t>
-  </si>
-  <si>
-    <t>関数 f(x) = e^{-x} \sin x (x &gt; 0) について、f(x) が極大値をとる x の値を小さい方から順に x_1, x_2, \cdots とするとき、数列 \{f(x_n)\} は等比数列であることを示せ。また、\displaystyle \sum_{n=1}^{\infty} f(x_n) を求めよ。</t>
   </si>
   <si>
     <t>x=3\sin t+4\cos t y=4\sin t-3\cos t</t>
@@ -789,9 +728,6 @@
     <t>(2) 辺 CA の長さ y</t>
   </si>
   <si>
-    <t>(4) \int (2e^t - 3 \cdot 2^t) dt</t>
-  </si>
-  <si>
     <t>(1) 次の条件を満たすような原始関数 F(x) を求めよ。</t>
   </si>
   <si>
@@ -804,96 +740,21 @@
     <t>微分可能な関数 f(x) が f'(x) = |e^x - 1| を満たし、f(1) = e であるとき、f(x) を求めよ。</t>
   </si>
   <si>
-    <t>(1) \int \sqrt{2x-3} dx</t>
-  </si>
-  <si>
-    <t>(4) \int 2^{-3x+1} dx</t>
-  </si>
-  <si>
-    <t>(1) \int (2x+1)\sqrt{x+2} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \sin^3 x \cos x dx</t>
-  </si>
-  <si>
-    <t>(1) \int xe^{2x} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \log(x+1) dx</t>
-  </si>
-  <si>
-    <t>(3) \int x \cos 2x dx</t>
-  </si>
-  <si>
-    <t>(1) \int x^2 \sin x dx</t>
-  </si>
-  <si>
-    <t>(2) \int (\log x)^2 dx</t>
-  </si>
-  <si>
-    <t>(3) \int x^2 e^{2x} dx</t>
-  </si>
-  <si>
-    <t>不定積分 \int e^x \sin x dx を求めよ。</t>
-  </si>
-  <si>
-    <t>n を0以上の整数とし、I_n = \int \sin^n x dx とする。このとき、次の等式が成り立つことを証明せよ。ただし、\sin^0 x = 1 である。</t>
-  </si>
-  <si>
-    <t>(2) \int x \sqrt[3]{x+3} dx</t>
-  </si>
-  <si>
     <t>x + \sqrt{x^2 + 1} = t の置き換えを用いて、次の不定積分を求めよ。</t>
   </si>
   <si>
-    <t>(2) \int \sqrt{x^2 + 1} dx</t>
-  </si>
-  <si>
-    <t>(1) \int \cos^2 x dx</t>
-  </si>
-  <si>
-    <t>(2) \int \cos^3 x dx</t>
-  </si>
-  <si>
-    <t>(3) \int \sin 2x \cos 3x dx</t>
-  </si>
-  <si>
-    <t>定積分 \int_0^{\pi} \sin mx \cos nx dx の値を求めよ。ただし、m, n は自然数とする。</t>
-  </si>
-  <si>
-    <t>定積分 I = \int_0^{\pi} |\sin x + \sqrt{3} \cos x| dx を求めよ。</t>
-  </si>
-  <si>
     <t>次の定積分を求めよ。ただし、(1)においてaは正の定数とする。</t>
   </si>
   <si>
     <t>f(x)を連続な関数、aを正の定数とする。</t>
   </si>
   <si>
-    <t>(1) 等式 \int_0^a f(x) dx = \int_0^a f(a-x) dx を証明せよ。</t>
-  </si>
-  <si>
-    <t>(2) \int_0^{2\pi} x^2 |\sin x| dx</t>
-  </si>
-  <si>
-    <t>a を 0 でない定数とし、A = \int_0^{\pi} e^{-ax} \sin 2x dx, B = \int_0^{\pi} e^{-ax} \cos 2x dx とする。このとき、A, B の値をそれぞれ求めよ。</t>
-  </si>
-  <si>
     <t>(2) (1) の f(x), g(x) に対し、次の等式が成り立つことを示せ。</t>
   </si>
   <si>
-    <t>(1) f(x) = \int_0^x (t-x) \sin t dt</t>
-  </si>
-  <si>
     <t>次の等式を満たす関数 f(x) を求めよ。 (2) では、定数 a, b の値を求めよ。</t>
   </si>
   <si>
-    <t>(1) f(x) = 3x + \int_0^\pi f(t) \sin t dt</t>
-  </si>
-  <si>
-    <t>(2) \int_a^x (x-t)f(t) dt = xe^{-x} + b</t>
-  </si>
-  <si>
     <t>(2) I(a) の値を最小にする a の値を求め、そのときの積分の値Iを求めよ。</t>
   </si>
   <si>
@@ -901,9 +762,6 @@
   </si>
   <si>
     <t>(2) a_{n+1} を a_n で表せ。</t>
-  </si>
-  <si>
-    <t>(1) \displaystyle \lim_{x \to \infty} \int_1^x te^{-t} dt</t>
   </si>
   <si>
     <t>(2) y=(3-x)e^x、x=0、x=2、x軸</t>
@@ -1173,15 +1031,6 @@
     <t>(2) \dfrac{1}{\sqrt{2n+1}-\sqrt{2n}}</t>
   </si>
   <si>
-    <t>(1) \lim_{n \to \infty} \dfrac{3+7+11+\cdots+(4n-1)}{3+5+7+\cdots+(2n+1)}</t>
-  </si>
-  <si>
-    <t>(1) 極限 \lim_{n \to \infty} \dfrac{\cos n\pi}{n} を求めよ。</t>
-  </si>
-  <si>
-    <t>(2) a_n = \dfrac{1}{n^2+1} + \dfrac{1}{n^2+2} + \cdots + \dfrac{1}{n^2+n} とするとき、\lim_{n \to \infty} a_n を求めよ。</t>
-  </si>
-  <si>
     <t>(1) 不等式 2^n &gt; \dfrac{1}{6}n^3 が成り立つことを、二項定理を用いて示せ。</t>
     <rPh sb="39" eb="41">
       <t>ニコウ</t>
@@ -1192,12 +1041,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(2) \lim_{n \to \infty} \dfrac{n^2}{2^n} の値を求めよ。</t>
-  </si>
-  <si>
-    <t>(2) 数列 \{a_n\} の第 n 項 a_n は n 桁の正の整数とする。このとき、極限 \lim_{n \to \infty} \dfrac{\log_{10} a_n}{n} を求めよ。</t>
-  </si>
-  <si>
     <t>(1) 2\left(- \dfrac{3}{4}\right)^{n-1}</t>
   </si>
   <si>
@@ -1232,18 +1075,12 @@
     <t>(2) 3 - a_{n+1} &lt; \dfrac{1}{3}(3 - a_n) を証明せよ。</t>
   </si>
   <si>
-    <t>(1) \sum_{n=1}^{\infty} \dfrac{1}{(2n+1)(2n+3)}</t>
-  </si>
-  <si>
     <t>(2) \dfrac{1}{\sqrt{1}+\sqrt{3}} + \dfrac{1}{\sqrt{2}+\sqrt{4}} + \dfrac{1}{\sqrt{3}+\sqrt{5}} + \cdots</t>
   </si>
   <si>
     <t>(1) \dfrac{1}{2} + \dfrac{5}{3} + \dfrac{9}{4} + \dfrac{13}{5} + \cdots</t>
   </si>
   <si>
-    <t>(2) 無限級数 \sum_{n=1}^{\infty} (\dfrac{1}{3})^n \sin \dfrac{n\pi}{2} の和を求めよ。</t>
-  </si>
-  <si>
     <t>無限級数 (x-4) + \dfrac{x(x-4)}{2x-4} + \dfrac{x^2(x-4)}{(2x-4)^2} + \cdots (x \neq 2) について</t>
   </si>
   <si>
@@ -1253,84 +1090,21 @@
     <t>\left(2 - \dfrac{1}{2}\right) + \left(\dfrac{2}{3} - \dfrac{1}{2^2}\right) + \left(\dfrac{2}{3^2} - \dfrac{1}{2^3}\right) + \left(\dfrac{2}{3^3} - \dfrac{1}{2^4}\right) + \cdots + \left(\dfrac{2}{3^{n-1}} - \dfrac{(-1)^n}{2^n}\right) + \cdots</t>
   </si>
   <si>
-    <t>無限級数 1 - \dfrac{1}{2} + \dfrac{1}{2} - \dfrac{1}{3} + \dfrac{1}{3} - \dfrac{1}{4} + \dfrac{1}{4} - \cdots \cdots ・・・①について</t>
-  </si>
-  <si>
-    <t>(2) 数列の和 S_n = \sum_{k=1}^{n} k\left(\dfrac{1}{4}\right)^{k-1} を求めよ。</t>
-  </si>
-  <si>
     <t>(2) 無限級数 1 + \dfrac{1}{2} + \dfrac{1}{3} + \cdots + \dfrac{1}{n} + \cdots は発散することを証明せよ。</t>
   </si>
   <si>
-    <t>(2) z = \dfrac{1 + \sqrt{3}i}{10} のとき、無限級数 \sum_{n=1}^{\infty} x_n と \sum_{n=1}^{\infty} y_n はともに収束し、それぞれの和は \sum_{n=1}^{\infty} x_n = \square, \sum_{n=1}^{\infty} y_n = \square である。</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to 2} \dfrac{x^3 - 3x - 2}{x^2 - 3x + 2}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to 0} \left(\dfrac{1}{x} \cdot \dfrac{3}{x+3} - 1\right)</t>
-  </si>
-  <si>
-    <t>(3) \lim_{x \to 4} \dfrac{\sqrt{x+5} - 3}{x-4}</t>
-  </si>
-  <si>
-    <t>\lim_{x \to 1} \dfrac{a\sqrt{x+1} - b}{x-1} = \sqrt{2}</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to 1+0} \dfrac{x-2}{x-1}, \lim_{x \to 1-0} \dfrac{x-2}{x-1} を求めよ。</t>
-  </si>
-  <si>
     <t>(2) x \to 0 のとき、関数 \dfrac{x^4 - x}{|x|} の極限は存在するかどうかを調べよ。</t>
   </si>
   <si>
-    <t>(2) \lim_{x \to -\infty} \dfrac{3x^2 + 4x - 1}{2x^2 - 3}</t>
-  </si>
-  <si>
-    <t>(4) \lim_{x \to -\infty} \dfrac{4^x}{3^x + 2^x}</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to \infty} \left[\dfrac{1}{2} \log_3 x + \log_3 (\sqrt{3x+1} - \sqrt{3x-1}) \right]</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to \infty} \dfrac{[3x]}{x}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to \infty} (3^x + 5^{\dfrac{1}{x}})</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to 0} \dfrac{\sin 3x}{x}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to 0} \dfrac{\tan x^\circ}{x}</t>
-  </si>
-  <si>
-    <t>(3) \lim_{x \to 0} \dfrac{x^2}{1-\cos x}</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to \dfrac{\pi}{2}} \dfrac{\cos x}{2x - \pi}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to \infty} x \sin \dfrac{1}{x}</t>
-  </si>
-  <si>
-    <t>(3) \lim_{x \to 0} x^2 \sin \dfrac{1}{x}</t>
-  </si>
-  <si>
     <t>(1) \dfrac{l}{\sin \theta} をtで表せ。</t>
   </si>
   <si>
-    <t>(2) 極限値 \lim_{t \to 0} \dfrac{l}{\theta} を求めよ。</t>
-  </si>
-  <si>
     <t>(2) g(x) = \dfrac{1}{(x-1)^2}(x \neq 1), \quad g(1) = 0</t>
   </si>
   <si>
     <t>無限級数 x + \dfrac{x}{1+x} + \dfrac{x}{(1+x)^2} + \cdots + \dfrac{x}{(1+x)^{n-1}} + \cdots について、</t>
   </si>
   <si>
-    <t>(1) f(x) = \lim_{x \to \infty} \dfrac{x^{2n} - x^{2n-1} + ax^2 + bx}{x^{2n} + 1} を求めよ。</t>
-  </si>
-  <si>
     <t>(1) y = \dfrac{x}{2x-1}</t>
   </si>
   <si>
@@ -1352,24 +1126,6 @@
     <t>(1) y = \sqrt[3]{\dfrac{(x+2)^4}{x^2(x^2+1)}}</t>
   </si>
   <si>
-    <t>\lim_{h \to 0} (1+h)^{\dfrac{1}{h}} = e を用いて、次の極限値を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) \lim_{x \to 0} (1+2x)^{\dfrac{1}{x}} \quad (2) \lim_{x \to \infty} (1+\dfrac{3}{x})^{x} \quad (3) \lim_{x \to \infty} (1-\dfrac{4}{x})^{x}</t>
-  </si>
-  <si>
-    <t>(1) \lim_{h \to 0} \dfrac{f(a+h^2) - f(a)}{h}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to 0} \dfrac{f(3x) - f(\sin x)}{x}</t>
-  </si>
-  <si>
-    <t>(ア) \lim_{x \to 0} \dfrac{2^x - 1}{x} \quad (イ) \lim_{x \to \alpha} \dfrac{x \sin x - \alpha \sin \alpha}{\sin(x-\alpha)}</t>
-  </si>
-  <si>
-    <t>(2) \lim_{x \to 0} \dfrac{e^{x}-1}{x} = 1であることを用いて、極限値 \lim_{h \to 0} \dfrac{e^{(h+1)^2}-e^{h^2}+1}{h} を求めよ。</t>
-  </si>
-  <si>
     <t>(2) y = \tan x \ \left(-\dfrac{\pi}{2} &lt; x &lt; \dfrac{\pi}{2}\right) の逆関数を y = g(x) とする。g''(1) の値を求めよ。</t>
   </si>
   <si>
@@ -1385,186 +1141,27 @@
     <t>(2) サイクロイド x = t - \sin t, \ y = 1 - \cos t について、\dfrac{d^2y}{dx^2} を t の関数として表せ。</t>
   </si>
   <si>
-    <t>平均値の定理を用いて、極限値 \displaystyle \lim_{x \to 0} \dfrac{\cos x - \cos x^2}{x - x^2} を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) \displaystyle \lim_{x \to 0} \dfrac{x - \log(1+x)}{x^2}</t>
-  </si>
-  <si>
-    <t>(2) \displaystyle \lim_{x \to \infty} \dfrac{x^2}{e^{2x}}</t>
-  </si>
-  <si>
-    <t>関数 y=\dfrac{1-\log x}{x^2} のグラフの概形をかけ。ただし、\displaystyle \lim_{x \to \infty} \dfrac{\log x}{x^2} = 0 である。</t>
-  </si>
-  <si>
     <t>(2) 0 でない実数 x に対して、|x|&lt;n となる自然数 n をとると、不等式  \left(1 + \dfrac{x}{n}\right)^n &lt; e^x &lt; \left(1 - \dfrac{x}{n}\right)^{-n}  が成り立つことを示せ。</t>
   </si>
   <si>
-    <t>a を定数とする。方程式 ax = 2\log x + \log 3 の実数解の個数について調べよ。ただし、\displaystyle \lim_{x \to \infty} \dfrac{\log x}{x} = 0 を用いてよい。</t>
-  </si>
-  <si>
-    <t>0 &lt; x &lt; \pi のとき、不等式 x \cos x &lt; \sin x が成り立つことを示せ。そして、これを用いて、\displaystyle \lim_{x \to +0} \dfrac{x - \sin x}{x^2} を求めよ。</t>
-  </si>
-  <si>
     <t>x=2\cos\left(nt+\dfrac{\pi}{6}\right) と表されるとき、t=\dfrac{2}{3} における速度vと加速度\alphaを求めよ。</t>
   </si>
   <si>
-    <t>(1) \int \dfrac{(\sqrt{x} - 2)^2}{\sqrt{x}} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \dfrac{x - \cos^2 x}{x \cos^2 x} dx</t>
-  </si>
-  <si>
-    <t>(3) \int \dfrac{1}{\tan^2 x} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \cos\left(\dfrac{2}{3}x-1\right) dx</t>
-  </si>
-  <si>
-    <t>(3) \int \dfrac{dx}{4x+5}</t>
-  </si>
-  <si>
-    <t>(2) \int \dfrac{e^{2x}}{(e^x+1)^2} dx</t>
-  </si>
-  <si>
-    <t>(1) \int xe^{-\dfrac{x^2}{2}} dx</t>
-  </si>
-  <si>
-    <t>(3) \int \dfrac{x+1}{x^2+2x-1} dx</t>
-  </si>
-  <si>
-    <t>(1) \int \dfrac{x^3+x}{x^2-1} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \dfrac{x+5}{x^2+x-2} dx</t>
-  </si>
-  <si>
-    <t>(3) \int \dfrac{x}{(2x-1)^4} dx</t>
-  </si>
-  <si>
-    <t>(1) \int \dfrac{x}{\sqrt{x+9} + 3} dx</t>
-  </si>
-  <si>
-    <t>(3) \int \dfrac{dx}{x\sqrt{x+1}}</t>
-  </si>
-  <si>
-    <t>(1) \int \dfrac{1}{\sqrt{x^2 + 1}} dx</t>
-  </si>
-  <si>
-    <t>(1) \int \dfrac{\sin x - \sin^3 x}{1 + \cos x} dx</t>
-  </si>
-  <si>
-    <t>(2) \int \dfrac{dx}{\sin x}</t>
-  </si>
-  <si>
-    <t>\tan \dfrac{x}{2} = t とおき、不定積分 \int \dfrac{dx}{5\sin x + 3} を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) \int_1^2 \dfrac{x-1}{\sqrt[3]{x}} dx</t>
-  </si>
-  <si>
-    <t>(2) \int_1^3 \dfrac{1}{x^2+3x} dx</t>
-  </si>
-  <si>
-    <t>(3) \int_0^{\dfrac{\pi}{8}} \sin^2 2x dx</t>
-  </si>
-  <si>
-    <t>(4) \int_1^e \dfrac{\log x}{x} dx</t>
-  </si>
-  <si>
-    <t>(1) \int_1^4 \dfrac{x}{\sqrt{5-x}} dx</t>
-  </si>
-  <si>
-    <t>(2) \int_0^{\dfrac{\pi}{2}} \dfrac{\sin x \cos x}{1+\sin^2 x} dx</t>
-  </si>
-  <si>
-    <t>(1) \int_0^{\dfrac{a}{2}} \sqrt{a^2 - x^2} dx</t>
-  </si>
-  <si>
-    <t>(2) \int_0^{\sqrt{2}} \dfrac{dx}{\sqrt{4-x^2}}</t>
-  </si>
-  <si>
-    <t>(1) \int_1^{\sqrt{3}} \dfrac{dx}{x^2+3}</t>
-  </si>
-  <si>
-    <t>(2) \int_{-1}^1 \dfrac{dx}{x^2+2x+5}</t>
-  </si>
-  <si>
-    <t>(1) \int_{-a}^{a} \dfrac{x^3}{\sqrt{a^2 + x^2}} dx</t>
-  </si>
-  <si>
-    <t>(2) \int_{-\dfrac{\pi}{2}}^{\dfrac{\pi}{2}} (2\sin x + \cos x)^3 dx</t>
-  </si>
-  <si>
-    <t>(2) (1)の等式を利用して、定積分 \int_0^a \dfrac{e^x}{e^x + e^{a-x}} dx を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) 連続な関数 f(x) について、等式 \int_0^{\pi} xf(\sin x) dx = \dfrac{\pi}{2} \int_0^{\pi} f(\sin x) dx を示せ。</t>
-  </si>
-  <si>
-    <t>(2) (1)の等式を利用して、定積分 \int_0^{\pi} \dfrac{x\sin x}{3+\sin^2 x} dx を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) \int_1^2 \dfrac{\log x}{x^2} dx</t>
-  </si>
-  <si>
     <t>(3) B(m, n) = \dfrac{(m-1)!(n-1)!}{(m+n-1)!}</t>
   </si>
   <si>
     <t>(1) f(x) = \dfrac{e^x}{e^x + 1} のとき、y = f(x) の逆関数 y = g(x) を求めよ。</t>
   </si>
   <si>
-    <t>(2) f(x) = \int_{x^2}^{x^3} \dfrac{1}{t \log t} dt \ (x &gt; 0)</t>
-  </si>
-  <si>
-    <t>(1) 定積分 I(a) = \int_0^1 \left( \sin \dfrac{\pi}{2} x - ax \right)^2 dx を求めよ。</t>
-  </si>
-  <si>
-    <t>(1) \displaystyle \lim_{n \to \infty} \sum_{k=1}^n \left( \dfrac{n+k}{n^4} \right)^{\dfrac{1}{3}}</t>
-  </si>
-  <si>
-    <t>(2) \displaystyle \lim_{n \to \infty} \sum_{k=1}^n \dfrac{n^2}{(k+n)^2(k+2n)}</t>
-  </si>
-  <si>
-    <t>(1) \displaystyle \lim_{n \to \infty} \sum_{k=1}^{2n} \dfrac{1}{3n+k}</t>
-  </si>
-  <si>
-    <t>(2) \displaystyle \lim_{n \to \infty} \dfrac{1}{\sqrt{n}} \sum_{k=n+1}^{2n} \dfrac{1}{\sqrt{k}}</t>
-  </si>
-  <si>
-    <t>\displaystyle \lim_{n \to \infty} \dfrac{1}{n} \sqrt[n]{\dfrac{(4n)!}{(3n)!}}</t>
-  </si>
-  <si>
-    <t>(2) 極限値a=\displaystyle \lim_{n \to \infty} \dfrac{l_n(1)+l_n(2)+...+l_n(n)}{n}を求めよ。ただし、l_(n)=4とする。</t>
-  </si>
-  <si>
-    <t>n個のボールを2n個の箱へ投げ入れる。各ボールはいずれかの箱に入るものとし、どの箱に入る確率も等しいとする。どの箱にも1個以下のボールしか入っていない確率をp_nとする。このとき、極限値\displaystyle \lim_{n \to \infty} \dfrac{\log p_n}{n}を求めよ。</t>
-  </si>
-  <si>
     <t>(ア) 0 &lt; x &lt; \dfrac{1}{2} のとき、1 &lt; \dfrac{1}{\sqrt{1-x^3}} &lt; \dfrac{1}{\sqrt{1-x^2}}</t>
   </si>
   <si>
     <t>\log(n+1) &lt; 1 + \dfrac{1}{2} + \dfrac{1}{3} + \cdots + \dfrac{1}{n} &lt; \log n + 1</t>
   </si>
   <si>
-    <t>自然数nに対して、a_n = \int_0^{\dfrac{\pi}{4}} \tan^{2n}x dx とする。</t>
-  </si>
-  <si>
-    <t>(2) \displaystyle \lim_{x \to 0} \dfrac{1}{x} \int_0^x \sqrt{1+3\cos^2 t} dt</t>
-  </si>
-  <si>
-    <t>a_n = 1 - \dfrac{1}{2} + \dfrac{1}{3} - \cdots + (-1)^{n-1}\dfrac{1}{n}, \quad \alpha = \int_0^1 \dfrac{1}{1+x} dx とする。</t>
-  </si>
-  <si>
-    <t>(2) 極限値 \displaystyle \lim_{n \to \infty} \dfrac{\log(n!)}{n \log n - n} を求めよ。</t>
-  </si>
-  <si>
     <t>(1) 曲線Aを原点Oを中心として、\dfrac{\pi}{4} だけ回転させてできる曲線の方程式</t>
   </si>
   <si>
-    <t>(2) \displaystyle \lim_{t \to 1+0} \dfrac{T(t)}{S(t)} を求めよ。</t>
-  </si>
-  <si>
     <t>曲線 x = \tan \theta, y = \cos 2\theta \left( \dfrac{\pi}{2} &lt; \theta &lt; \pi \right) と x 軸で囲まれた部分を x 軸の周りに1回転させてできる回転体の体積 V を求めよ。</t>
   </si>
   <si>
@@ -1583,9 +1180,6 @@
     <t>(2) 関数 y=\sqrt{4-x} の定義域が a \leqq x \leqq b であるとき、値域が 1 \leqq y \leqq 2 となるように、定数 a, b の値を求めよ。</t>
   </si>
   <si>
-    <t>(1) 実数 x に対して、[x] を m \leqq x &lt; m+1 を満たす整数 m とする。このとき、 \lim_{n \to \infty} \dfrac{[10^n \pi]}{10^n} を求めよ。</t>
-  </si>
-  <si>
     <t>-1 \leqq x \leqq 2 とする。次の関数の連続性について調べよ。</t>
   </si>
   <si>
@@ -1604,22 +1198,7 @@
     <t>(2) f(x) = 2\sin x - \sqrt{3}x (0 \leqq x \leqq 2\pi)</t>
   </si>
   <si>
-    <t>-2 \leqq x \leqq 2 のとき、関数 f(x) = \int_0^x (1-t^2)e^t dt の最大値・最小値と、そのときの x の値を求めよ。</t>
-  </si>
-  <si>
-    <t>実数 t が 1 \leqq t \leqq e の範囲を動くとき、S(t) = \int_0^1 |e^x - t| dx の最大値と最小値を求めよ。</t>
-  </si>
-  <si>
-    <t>(イ) \dfrac{1}{2} \leqq \int_0^{\dfrac{1}{2}} \dfrac{dx}{\sqrt{1-x^3}} &lt; \dfrac{\pi}{6}</t>
-  </si>
-  <si>
     <t>f(x), g(x) はともに区間 a \leqq x \leqq b (a &lt; b) で定義された連続な関数とする。このとき、不等式</t>
-  </si>
-  <si>
-    <t>\left\{\int_a^b f(x)g(x) dx \right\}^2 \leqq \sqrt{\left(\int_a^b f(x)^2 dx\right) \left(\int_a^b g(x)^2 dx\right)} \cdots\cdots ①</t>
-  </si>
-  <si>
-    <t>|a_n - \alpha| \leqq \int_0^1 x^n dx であることを示し、\displaystyle \lim_{n \to \infty} a_n を求めよ。</t>
   </si>
   <si>
     <t>(1) y=-\cos^2x \ (0 \leqq x \leqq \dfrac{\pi}{2})、x軸、y軸</t>
@@ -1654,9 +1233,6 @@
   </si>
   <si>
     <t>(2) 曲線 C:y=\log(x^2+1) \ (0 \leqq x \leqq 1) と直線 y=\log2 および y 軸で囲まれた部分を y 軸の周りに1回転させてできる回転体</t>
-  </si>
-  <si>
-    <t>関数 f(x) = \sin x \ (0 \leqq x \leqq \pi) について、関数 y=f(x) のグラフと x 軸で囲まれた部分を y 軸の周りに1回転させてできる立体の体積 V は、V = 2\pi \int_0^\pi x f(x) dx \quad で与えられることを示せ。また、この体積を求めよ。</t>
   </si>
   <si>
     <t>不等式 x^2 -x \leqq y \leqq x で表される座標平面上の領域を、直線 y=x の周りに1回転して得られる回転体の体積 V を求めよ。</t>
@@ -1696,9 +1272,6 @@
     <t>n は n \geqq 3 の整数とする。</t>
   </si>
   <si>
-    <t>(1) すべての自然数 n に対して、\sum_{k=1}^{2^n} \dfrac{1}{k} \geqq \dfrac{n}{2} + 1 が成り立つことを証明せよ。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> f(x) = \begin{cases} ax^2 + bx - 2 &amp; (x \geqq 1) \\ x^3 + (1-a)x^2 &amp; (x &lt; 1) \end{cases} </t>
   </si>
   <si>
@@ -1708,9 +1281,6 @@
     <t>n \geqq 2 のとき、I_n = \dfrac{1}{n} (-\sin^{n-1} x \cos x + (n-1)I_{n-2})</t>
   </si>
   <si>
-    <t>I_n = \int_0^{\dfrac{\pi}{2}} \sin^n x dx \ (nは0以上の整数)とするとき、関係式I_n = \dfrac{n-1}{n}I_{n-2} \ (n \geqq 2) と、次の[1], [2]が成り立つことを証明せよ。ただし、\sin^0 x = \cos^0 x = 1である。</t>
-  </si>
-  <si>
     <t>[1] I_0 = \dfrac{\pi}{2}, n \geqq 1 のとき I_{2n} = \dfrac{\pi}{2} \cdot \dfrac{1}{2} \cdot \dfrac{3}{4} \cdots \dfrac{2n-1}{2n}</t>
   </si>
   <si>
@@ -1718,12 +1288,6 @@
   </si>
   <si>
     <t>(2) B(m, n) = \dfrac{n-1}{m} B(m+1, n-1) \ (n \geqq 2)</t>
-  </si>
-  <si>
-    <t>(2) 不等式 \int_0^a e^{-t^2} dt \geqq a - \dfrac{a^3}{3} を証明せよ。ただし、a \geqq 0 とする。</t>
-  </si>
-  <si>
-    <t>曲線 y=e^{-x}\sin x \ (x \geqq 0) と x 軸で囲まれた図形を、x 軸の上側にある部分の面積を y 軸に近い方から順に S_0, S_1, \cdots, S_n, \cdots とするとき、\displaystyle \lim_{n \to \infty} \sum_{k=1}^{n} S_k を求めよ。</t>
   </si>
   <si>
     <t>0 \leqq x \leqq 1, 0 \leqq y \leqq 1, 0 \leqq z \leqq 1, \quad x^2 + y^2 + z^2 - 2xy - 1 \geqq 0</t>
@@ -1738,6 +1302,443 @@
   </si>
   <si>
     <t>(2) (ア) 関数 f(x), g(x), h(x) が微分可能であるとき、次の公式を証明せよ。 \{f(x)g(x)h(x)\}' = f'(x)g(x)h(x) + f(x)g'(x)h(x) + f(x)g(x)h'(x)</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \dfrac{(\sqrt{x} - 2)^2}{\sqrt{x}} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \dfrac{x - \cos^2 x}{x \cos^2 x} dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \dfrac{1}{\tan^2 x} dx</t>
+  </si>
+  <si>
+    <t>(4) \displaystyle \int (2e^t - 3 \cdot 2^t) dt</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \sqrt{2x-3} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \cos\left(\dfrac{2}{3}x-1\right) dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \dfrac{dx}{4x+5}</t>
+  </si>
+  <si>
+    <t>(4) \displaystyle \int 2^{-3x+1} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int (2x+1)\sqrt{x+2} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \dfrac{e^{2x}}{(e^x+1)^2} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int xe^{-\dfrac{x^2}{2}} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \sin^3 x \cos x dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \dfrac{x+1}{x^2+2x-1} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int xe^{2x} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \log(x+1) dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int x \cos 2x dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int x^2 \sin x dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int (\log x)^2 dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int x^2 e^{2x} dx</t>
+  </si>
+  <si>
+    <t>不定積分 \displaystyle \int e^x \sin x dx を求めよ。</t>
+  </si>
+  <si>
+    <t>n を0以上の整数とし、I_n = \displaystyle \int \sin^n x dx とする。このとき、次の等式が成り立つことを証明せよ。ただし、\sin^0 x = 1 である。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \dfrac{x^3+x}{x^2-1} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \dfrac{x+5}{x^2+x-2} dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \dfrac{x}{(2x-1)^4} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \dfrac{x}{\sqrt{x+9} + 3} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int x \sqrt[3]{x+3} dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \dfrac{dx}{x\sqrt{x+1}}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \dfrac{1}{\sqrt{x^2 + 1}} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \sqrt{x^2 + 1} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \cos^2 x dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \cos^3 x dx</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int \sin 2x \cos 3x dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int \dfrac{\sin x - \sin^3 x}{1 + \cos x} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int \dfrac{dx}{\sin x}</t>
+  </si>
+  <si>
+    <t>\tan \dfrac{x}{2} = t とおき、不定積分 \displaystyle \int \dfrac{dx}{5\sin x + 3} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_1^2 \dfrac{x-1}{\sqrt[3]{x}} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_1^3 \dfrac{1}{x^2+3x} dx</t>
+  </si>
+  <si>
+    <t>(4) \displaystyle \int_1^e \dfrac{\log x}{x} dx</t>
+  </si>
+  <si>
+    <t>定積分 \displaystyle \int_0^{\pi} \sin mx \cos nx dx の値を求めよ。ただし、m, n は自然数とする。</t>
+  </si>
+  <si>
+    <t>定積分 I = \displaystyle \int_0^{\pi} |\sin x + \sqrt{3} \cos x| dx を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_1^4 \dfrac{x}{\sqrt{5-x}} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_0^{\sqrt{2}} \dfrac{dx}{\sqrt{4-x^2}}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_1^{\sqrt{3}} \dfrac{dx}{x^2+3}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_{-1}^1 \dfrac{dx}{x^2+2x+5}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_{-a}^{a} \dfrac{x^3}{\sqrt{a^2 + x^2}} dx</t>
+  </si>
+  <si>
+    <t>(1) 等式 \displaystyle \int_0^a f(x) dx = \displaystyle \int_0^a f(a-x) dx を証明せよ。</t>
+  </si>
+  <si>
+    <t>(2) (1)の等式を利用して、定積分 \displaystyle \int_0^a \dfrac{e^x}{e^x + e^{a-x}} dx を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) 連続な関数 f(x) について、等式 \displaystyle \int_0^{\pi} xf(\sin x) dx = \dfrac{\pi}{2} \displaystyle \int_0^{\pi} f(\sin x) dx を示せ。</t>
+  </si>
+  <si>
+    <t>(2) (1)の等式を利用して、定積分 \displaystyle \int_0^{\pi} \dfrac{x\sin x}{3+\sin^2 x} dx を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_1^2 \dfrac{\log x}{x^2} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_0^{2\pi} x^2 |\sin x| dx</t>
+  </si>
+  <si>
+    <t>a を 0 でない定数とし、A = \displaystyle \int_0^{\pi} e^{-ax} \sin 2x dx, B = \displaystyle \int_0^{\pi} e^{-ax} \cos 2x dx とする。このとき、A, B の値をそれぞれ求めよ。</t>
+  </si>
+  <si>
+    <t>B(m, n) = \displaystyle \int_0^1 x^{m-1}(1-x)^{n-1} dx \ (m, n は自然数) とする。次のことを証明せよ。</t>
+  </si>
+  <si>
+    <t>\displaystyle \int_a^b f(x) dx + \displaystyle \int_{f(a)}^{f(b)} g(x) dx = bf(b) - af(a)</t>
+  </si>
+  <si>
+    <t>(1) f(x) = \displaystyle \int_0^x (t-x) \sin t dt</t>
+  </si>
+  <si>
+    <t>(2) f(x) = \displaystyle \int_{x^2}^{x^3} \dfrac{1}{t \log t} dt \ (x &gt; 0)</t>
+  </si>
+  <si>
+    <t>(1) f(x) = 3x + \displaystyle \int_0^\pi f(t) \sin t dt</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_a^x (x-t)f(t) dt = xe^{-x} + b</t>
+  </si>
+  <si>
+    <t>-2 \leqq x \leqq 2 のとき、関数 f(x) = \displaystyle \int_0^x (1-t^2)e^t dt の最大値・最小値と、そのときの x の値を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) 定積分 I(a) = \displaystyle \int_0^1 \left( \sin \dfrac{\pi}{2} x - ax \right)^2 dx を求めよ。</t>
+  </si>
+  <si>
+    <t>実数 t が 1 \leqq t \leqq e の範囲を動くとき、S(t) = \displaystyle \int_0^1 |e^x - t| dx の最大値と最小値を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) 不等式 \displaystyle \int_0^a e^{-t^2} dt \geqq a - \dfrac{a^3}{3} を証明せよ。ただし、a \geqq 0 とする。</t>
+  </si>
+  <si>
+    <t>\left\{\displaystyle \int_a^b f(x)g(x) dx \right\}^2 \leqq \sqrt{\left(\displaystyle \int_a^b f(x)^2 dx\right) \left(\displaystyle \int_a^b g(x)^2 dx\right)} \cdots\cdots ①</t>
+  </si>
+  <si>
+    <t>a_n = 1 - \dfrac{1}{2} + \dfrac{1}{3} - \cdots + (-1)^{n-1}\dfrac{1}{n}, \quad \alpha = \displaystyle \int_0^1 \dfrac{1}{1+x} dx とする。</t>
+  </si>
+  <si>
+    <t>関数 f(x) = \sin x \ (0 \leqq x \leqq \pi) について、関数 y=f(x) のグラフと x 軸で囲まれた部分を y 軸の周りに1回転させてできる立体の体積 V は、V = 2\pi \displaystyle \int_0^\pi x f(x) dx \quad で与えられることを示せ。また、この体積を求めよ。</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \int_0^{\frac{\pi}{8}} \sin^2 2x dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_0^{\frac{\pi}{2}} \dfrac{\sin x \cos x}{1+\sin^2 x} dx</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \int_0^{\frac{a}{2}} \sqrt{a^2 - x^2} dx</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \int_{-\dfrac{\pi}{2}}^{\frac{\pi}{2}} (2\sin x + \cos x)^3 dx</t>
+  </si>
+  <si>
+    <t>I_n = \displaystyle \int_0^{\frac{\pi}{2}} \sin^n x dx \ (nは0以上の整数)とするとき、関係式I_n = \dfrac{n-1}{n}I_{n-2} \ (n \geqq 2) と、次の[1], [2]が成り立つことを証明せよ。ただし、\sin^0 x = \cos^0 x = 1である。</t>
+  </si>
+  <si>
+    <t>(イ) \dfrac{1}{2} \leqq \displaystyle \int_0^{\frac{1}{2}} \dfrac{dx}{\sqrt{1-x^3}} &lt; \dfrac{\pi}{6}</t>
+  </si>
+  <si>
+    <t>自然数nに対して、a_n = \displaystyle \int_0^{\frac{\pi}{4}} \tan^{2n}x dx とする。</t>
+  </si>
+  <si>
+    <t>無限級数 1 - \dfrac{1}{2} + \dfrac{1}{2} - \dfrac{1}{3} + \dfrac{1}{3} - \dfrac{1}{4} + \dfrac{1}{4} - \cdots \cdots ①について</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1) \displaystyle\sum_{n=1}^{\infty} \dfrac{1}{(2n+1)(2n+3)}</t>
+  </si>
+  <si>
+    <t>(2) 無限級数 \displaystyle\sum_{n=1}^{\infty} (\dfrac{1}{3})^n \sin \dfrac{n\pi}{2} の和を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) 数列の和 S_n = \displaystyle\sum_{k=1}^{n} k\left(\dfrac{1}{4}\right)^{k-1} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) すべての自然数 n に対して、\displaystyle\sum_{k=1}^{2^n} \dfrac{1}{k} \geqq \dfrac{n}{2} + 1 が成り立つことを証明せよ。</t>
+  </si>
+  <si>
+    <t>(2) z = \dfrac{1 + \sqrt{3}i}{10} のとき、無限級数 \displaystyle\sum_{n=1}^{\infty} x_n と \displaystyle\sum_{n=1}^{\infty} y_n はともに収束し、それぞれの和は \displaystyle\sum_{n=1}^{\infty} x_n = \square, \displaystyle\sum_{n=1}^{\infty} y_n = \square である。</t>
+  </si>
+  <si>
+    <t>関数 f(x) = e^{-x} \sin x (x &gt; 0) について、f(x) が極大値をとる x の値を小さい方から順に x_1, x_2, \cdots とするとき、数列 \{f(x_n)\} は等比数列であることを示せ。また、\displaystyle \displaystyle\sum_{n=1}^{\infty} f(x_n) を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{n \to \infty} \dfrac{3+7+11+\cdots+(4n-1)}{3+5+7+\cdots+(2n+1)}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{n \to \infty} \{\log_3(1^2+2^2+\cdots+n^2)-\log_3n^3\}</t>
+  </si>
+  <si>
+    <t>(1) 数列 \{a_n\} (n=1, 2, 3, \cdots) が \displaystyle\lim_{n\to\infty}(3n-1)a_n = -6 を満たすとき、\displaystyle\lim_{n\to\infty} na_n = \boxed{} である。</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{n\to\infty} (\sqrt{n^2+an+2} - \sqrt{n^2-n}) = 5 であるとき、定数 a の値を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) 極限 \displaystyle\lim_{n \to \infty} \dfrac{\cos n\pi}{n} を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) a_n = \dfrac{1}{n^2+1} + \dfrac{1}{n^2+2} + \cdots + \dfrac{1}{n^2+n} とするとき、\displaystyle\lim_{n \to \infty} a_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{n \to \infty} \dfrac{n^2}{2^n} の値を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) 実数 x に対して、[x] を m \leqq x &lt; m+1 を満たす整数 m とする。このとき、 \displaystyle\lim_{n \to \infty} \dfrac{[10^n \pi]}{10^n} を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) 数列 \{a_n\} の第 n 項 a_n は n 桁の正の整数とする。このとき、極限 \displaystyle\lim_{n \to \infty} \dfrac{\log_{10} a_n}{n} を求めよ。</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{n \to \infty} a_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{n \to \infty} P_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) 図形 A_n の周の長さを l_n とするとき、\displaystyle\lim_{n \to \infty} l_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(3) 図形 A_n の面積を S_n とするとき、\displaystyle\lim_{n \to \infty} S_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{n \to \infty} S_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to 2} \dfrac{x^3 - 3x - 2}{x^2 - 3x + 2}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to 0} \left(\dfrac{1}{x} \cdot \dfrac{3}{x+3} - 1\right)</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{x \to 4} \dfrac{\sqrt{x+5} - 3}{x-4}</t>
+  </si>
+  <si>
+    <t>\displaystyle\lim_{x \to 1} \dfrac{a\sqrt{x+1} - b}{x-1} = \sqrt{2}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to 1+0} \dfrac{x-2}{x-1}, \displaystyle\lim_{x \to 1-0} \dfrac{x-2}{x-1} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to \infty} (x^3 - 3x^2 + 5)</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to -\infty} \dfrac{3x^2 + 4x - 1}{2x^2 - 3}</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{x \to \infty} (\sqrt{x^2 - x} - x)</t>
+  </si>
+  <si>
+    <t>(4) \displaystyle\lim_{x \to -\infty} \dfrac{4^x}{3^x + 2^x}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to \infty} \left[\dfrac{1}{2} \log_3 x + \log_3 (\sqrt{3x+1} - \sqrt{3x-1}) \right]</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to -\infty} \sqrt{x^2 + 3x + x}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to \infty} \dfrac{[3x]}{x}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to \infty} (3^x + 5^{\frac{1}{x}})</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to 0} \dfrac{\sin 3x}{x}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to 0} \dfrac{\tan x^\circ}{x}</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{x \to 0} \dfrac{x^2}{1-\cos x}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to \dfrac{\pi}{2}} \dfrac{\cos x}{2x - \pi}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to \infty} x \sin \dfrac{1}{x}</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle\lim_{x \to 0} x^2 \sin \dfrac{1}{x}</t>
+  </si>
+  <si>
+    <t>(2) 極限値 \displaystyle\lim_{t \to 0} \dfrac{l}{\theta} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) f(x) = \displaystyle\lim_{x \to \infty} \dfrac{x^{2n} - x^{2n-1} + ax^2 + bx}{x^{2n} + 1} を求めよ。</t>
+  </si>
+  <si>
+    <t>\displaystyle\lim_{h \to 0} (1+h)^{\frac{1}{h}} = e を用いて、次の極限値を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{x \to 0} (1+2x)^{\frac{1}{x}} \quad (2) \displaystyle\lim_{x \to \infty} (1+\dfrac{3}{x})^{x} \quad (3) \displaystyle\lim_{x \to \infty} (1-\dfrac{4}{x})^{x}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle\lim_{h \to 0} \dfrac{f(a+h^2) - f(a)}{h}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to 0} \dfrac{f(3x) - f(\sin x)}{x}</t>
+  </si>
+  <si>
+    <t>(ア) \displaystyle\lim_{x \to 0} \dfrac{2^x - 1}{x} \quad (イ) \displaystyle\lim_{x \to \alpha} \dfrac{x \sin x - \alpha \sin \alpha}{\sin(x-\alpha)}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle\lim_{x \to 0} \dfrac{e^{x}-1}{x} = 1であることを用いて、極限値 \displaystyle\lim_{h \to 0} \dfrac{e^{(h+1)^2}-e^{h^2}+1}{h} を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) f(x) = \dfrac{1}{x} (x &gt; 0) のとき、f(a+h) - f(a) = hf'(a + \theta h)、0 &lt; \theta &lt; 1 を満たす \theta を正の数 a, h で表し、\displaystyle \displaystyle\lim_{h \to +0} \theta を求めよ。</t>
+  </si>
+  <si>
+    <t>平均値の定理を用いて、極限値 \displaystyle \displaystyle\lim_{x \to 0} \dfrac{\cos x - \cos x^2}{x - x^2} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \displaystyle\lim_{x \to 0} \dfrac{x - \log(1+x)}{x^2}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \displaystyle\lim_{x \to \infty} \dfrac{x^2}{e^{2x}}</t>
+  </si>
+  <si>
+    <t>(3) \displaystyle \displaystyle\lim_{x \to +0} x \log x</t>
+  </si>
+  <si>
+    <t>次の関数に最大値、最小値があれば、それぞれ求めよ。ただし、(2)では必要ならば \displaystyle\lim_{x \to \infty} xe^{-x} = \displaystyle\lim_{x \to \infty} x^2e^{-x} = 0 を用いてもよい。</t>
+  </si>
+  <si>
+    <t>関数 y=\dfrac{1-\log x}{x^2} のグラフの概形をかけ。ただし、\displaystyle \displaystyle\lim_{x \to \infty} \dfrac{\log x}{x^2} = 0 である。</t>
+  </si>
+  <si>
+    <t>a を定数とする。方程式 ax = 2\log x + \log 3 の実数解の個数について調べよ。ただし、\displaystyle \displaystyle\lim_{x \to \infty} \dfrac{\log x}{x} = 0 を用いてよい。</t>
+  </si>
+  <si>
+    <t>f(x) = -e^x である。実数 b に対して、点 (0, b) を通る、曲線 y = f(x) の接線の本数を求めよ。ただし、\displaystyle \displaystyle\lim_{x \to -\infty} xe^x = 0 を用いてよい。</t>
+    <rPh sb="36" eb="37">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2) 極限値 \displaystyle \displaystyle\lim_{n \to \infty} n |b_n| を求めよ。</t>
+  </si>
+  <si>
+    <t>0 &lt; x &lt; \pi のとき、不等式 x \cos x &lt; \sin x が成り立つことを示せ。そして、これを用いて、\displaystyle \displaystyle\lim_{x \to +0} \dfrac{x - \sin x}{x^2} を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \displaystyle\lim_{n \to \infty} \displaystyle\sum_{k=1}^n \left( \dfrac{n+k}{n^4} \right)^{\frac{1}{3}}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \displaystyle\lim_{n \to \infty} \displaystyle\sum_{k=1}^n \dfrac{n^2}{(k+n)^2(k+2n)}</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \displaystyle\lim_{n \to \infty} \displaystyle\sum_{k=1}^{2n} \dfrac{1}{3n+k}</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \displaystyle\lim_{n \to \infty} \dfrac{1}{\sqrt{n}} \displaystyle\sum_{k=n+1}^{2n} \dfrac{1}{\sqrt{k}}</t>
+  </si>
+  <si>
+    <t>\displaystyle \displaystyle\lim_{n \to \infty} \dfrac{1}{n} \sqrt[n]{\dfrac{(4n)!}{(3n)!}}</t>
+  </si>
+  <si>
+    <t>(2) 極限値a=\displaystyle \displaystyle\lim_{n \to \infty} \dfrac{l_n(1)+l_n(2)+...+l_n(n)}{n}を求めよ。ただし、l_(n)=4とする。</t>
+  </si>
+  <si>
+    <t>n個のボールを2n個の箱へ投げ入れる。各ボールはいずれかの箱に入るものとし、どの箱に入る確率も等しいとする。どの箱にも1個以下のボールしか入っていない確率をp_nとする。このとき、極限値\displaystyle \displaystyle\lim_{n \to \infty} \dfrac{\log p_n}{n}を求めよ。</t>
+  </si>
+  <si>
+    <t>(1) \displaystyle \displaystyle\lim_{x \to \infty} \displaystyle \int_1^x te^{-t} dt</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \displaystyle\lim_{x \to 0} \dfrac{1}{x} \displaystyle \int_0^x \sqrt{1+3\cos^2 t} dt</t>
+  </si>
+  <si>
+    <t>|a_n - \alpha| \leqq \displaystyle \int_0^1 x^n dx であることを示し、\displaystyle \displaystyle\lim_{n \to \infty} a_n を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) 極限値 \displaystyle \displaystyle\lim_{n \to \infty} \dfrac{\log(n!)}{n \log n - n} を求めよ。</t>
+  </si>
+  <si>
+    <t>(2) \displaystyle \displaystyle\lim_{t \to 1+0} \dfrac{T(t)}{S(t)} を求めよ。</t>
+  </si>
+  <si>
+    <t>曲線 y=e^{-x}\sin x \ (x \geqq 0) と x 軸で囲まれた図形を、x 軸の上側にある部分の面積を y 軸に近い方から順に S_0, S_1, \cdots, S_n, \cdots とするとき、\displaystyle \displaystyle\lim_{n \to \infty} \displaystyle\sum_{k=1}^{n} S_k を求めよ。</t>
   </si>
 </sst>
 </file>
@@ -2271,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2322,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2342,10 +2343,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2362,10 +2363,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2385,10 +2386,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2405,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2422,10 +2423,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="F7" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2442,10 +2443,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2465,10 +2466,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2485,7 +2486,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2505,13 +2506,13 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2528,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2545,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2562,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2579,16 +2580,16 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2622,13 +2623,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="F17" t="s">
-        <v>486</v>
+        <v>346</v>
       </c>
       <c r="G17" t="s">
-        <v>487</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2648,13 +2649,13 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2674,19 +2675,19 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2706,10 +2707,10 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>438</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2726,10 +2727,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>440</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2746,10 +2747,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2766,13 +2767,13 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2789,10 +2790,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2809,19 +2810,19 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2838,7 +2839,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2855,13 +2856,13 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2878,10 +2879,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2898,16 +2899,16 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="F29" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2924,7 +2925,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2941,16 +2942,16 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2967,7 +2968,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2984,16 +2985,16 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3013,10 +3014,10 @@
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="G34" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3036,10 +3037,10 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3059,10 +3060,10 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3079,13 +3080,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3105,10 +3106,10 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3125,7 +3126,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3159,16 +3160,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>449</v>
       </c>
       <c r="H41" t="s">
-        <v>120</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3205,7 +3206,7 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3222,10 +3223,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -3245,13 +3246,13 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3268,10 +3269,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3288,13 +3289,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>500</v>
+        <v>356</v>
       </c>
       <c r="F47" t="s">
-        <v>501</v>
+        <v>357</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3314,13 +3315,13 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="H48" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3337,10 +3338,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3357,10 +3358,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>353</v>
+        <v>456</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3380,16 +3381,16 @@
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="H51" t="s">
-        <v>126</v>
+        <v>459</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3409,10 +3410,10 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>461</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3429,13 +3430,13 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>358</v>
+        <v>463</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3455,13 +3456,13 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
-        <v>361</v>
+        <v>466</v>
       </c>
       <c r="H54" t="s">
-        <v>362</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3481,13 +3482,13 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>364</v>
+        <v>469</v>
       </c>
       <c r="H55" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3507,10 +3508,10 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="G56" t="s">
-        <v>367</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3527,16 +3528,16 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>456</v>
+        <v>322</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G57" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="H57" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3553,13 +3554,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3576,10 +3577,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="F59" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3596,10 +3597,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3616,7 +3617,7 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3636,10 +3637,10 @@
         <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="G62" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3656,13 +3657,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>490</v>
+        <v>349</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3682,16 +3683,16 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="H64" t="s">
-        <v>502</v>
+        <v>358</v>
       </c>
       <c r="I64" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3711,10 +3712,10 @@
         <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3740,7 +3741,7 @@
         <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3760,13 +3761,13 @@
         <v>35</v>
       </c>
       <c r="F67" t="s">
+        <v>256</v>
+      </c>
+      <c r="G67" t="s">
+        <v>301</v>
+      </c>
+      <c r="H67" t="s">
         <v>302</v>
-      </c>
-      <c r="G67" t="s">
-        <v>375</v>
-      </c>
-      <c r="H67" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3786,13 +3787,13 @@
         <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="H68" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3812,10 +3813,10 @@
         <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="G69" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3832,10 +3833,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="F70" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3855,10 +3856,10 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="G71" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3878,10 +3879,10 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="G72" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3898,13 +3899,13 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3924,10 +3925,10 @@
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G74" t="s">
-        <v>384</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3944,10 +3945,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="F75" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3964,13 +3965,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="G76" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3987,7 +3988,7 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4007,13 +4008,13 @@
         <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4030,7 +4031,7 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4047,7 +4048,7 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="F80" t="s">
         <v>41</v>
@@ -4070,10 +4071,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4090,10 +4091,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4110,10 +4111,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4133,10 +4134,10 @@
         <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G84" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4153,7 +4154,7 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4170,7 +4171,7 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4187,7 +4188,7 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4204,7 +4205,7 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4221,7 +4222,7 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4238,10 +4239,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4261,7 +4262,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4278,7 +4279,7 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4298,13 +4299,13 @@
         <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>390</v>
+        <v>481</v>
       </c>
       <c r="G93" t="s">
-        <v>391</v>
+        <v>482</v>
       </c>
       <c r="H93" t="s">
-        <v>165</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4321,7 +4322,7 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4341,13 +4342,13 @@
         <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
-        <v>457</v>
+        <v>323</v>
       </c>
       <c r="H95" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4364,13 +4365,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G96" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4387,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4404,7 +4405,7 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4421,7 +4422,7 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4438,13 +4439,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4461,13 +4462,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F101" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G101" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4484,7 +4485,7 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4501,7 +4502,7 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4518,7 +4519,7 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4552,7 +4553,7 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4569,7 +4570,7 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4586,7 +4587,7 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>392</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4603,7 +4604,7 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>459</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4620,7 +4621,7 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4637,7 +4638,7 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4654,7 +4655,7 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4674,10 +4675,10 @@
         <v>48</v>
       </c>
       <c r="F113" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G113" t="s">
-        <v>461</v>
+        <v>327</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4694,13 +4695,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F114" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G114" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4717,10 +4718,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F115" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4737,7 +4738,7 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4754,7 +4755,7 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4771,7 +4772,7 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>491</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4788,7 +4789,7 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4805,7 +4806,7 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4822,13 +4823,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F121" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G121" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4845,7 +4846,7 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>198</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4862,7 +4863,7 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4882,13 +4883,13 @@
         <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="G124" t="s">
         <v>50</v>
       </c>
       <c r="H124" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4905,7 +4906,7 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
         <v>51</v>
@@ -4928,7 +4929,7 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4968,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F128" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4988,13 +4989,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F129" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G129" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5014,16 +5015,16 @@
         <v>58</v>
       </c>
       <c r="F130" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="G130" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="H130" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="I130" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5040,13 +5041,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F131" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G131" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5063,7 +5064,7 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5083,16 +5084,16 @@
         <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
+        <v>363</v>
       </c>
       <c r="G133" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="H133" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="I133" t="s">
-        <v>213</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5112,10 +5113,10 @@
         <v>59</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>367</v>
       </c>
       <c r="G134" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5135,13 +5136,13 @@
         <v>58</v>
       </c>
       <c r="F135" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="G135" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="H135" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5161,13 +5162,13 @@
         <v>59</v>
       </c>
       <c r="F136" t="s">
-        <v>216</v>
+        <v>372</v>
       </c>
       <c r="G136" t="s">
-        <v>217</v>
+        <v>373</v>
       </c>
       <c r="H136" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5187,13 +5188,13 @@
         <v>58</v>
       </c>
       <c r="F137" t="s">
-        <v>219</v>
+        <v>375</v>
       </c>
       <c r="G137" t="s">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="H137" t="s">
-        <v>221</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5210,7 +5211,7 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>222</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5227,10 +5228,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>223</v>
+        <v>379</v>
       </c>
       <c r="F139" t="s">
-        <v>492</v>
+        <v>351</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5250,13 +5251,13 @@
         <v>58</v>
       </c>
       <c r="F140" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="G140" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="H140" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5276,13 +5277,13 @@
         <v>58</v>
       </c>
       <c r="F141" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="G141" t="s">
-        <v>224</v>
+        <v>384</v>
       </c>
       <c r="H141" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5299,13 +5300,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="F142" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G142" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5325,13 +5326,13 @@
         <v>58</v>
       </c>
       <c r="F143" t="s">
-        <v>227</v>
+        <v>388</v>
       </c>
       <c r="G143" t="s">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="H143" t="s">
-        <v>229</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5351,10 +5352,10 @@
         <v>58</v>
       </c>
       <c r="F144" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="G144" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5371,7 +5372,7 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5391,16 +5392,16 @@
         <v>60</v>
       </c>
       <c r="F146" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="G146" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="H146" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="I146" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5417,7 +5418,7 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>230</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5434,7 +5435,7 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5454,10 +5455,10 @@
         <v>60</v>
       </c>
       <c r="F149" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G149" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5474,13 +5475,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="F150" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G150" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5500,10 +5501,10 @@
         <v>61</v>
       </c>
       <c r="F151" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="G151" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5520,13 +5521,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="F152" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="G152" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5543,13 +5544,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F153" t="s">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="G153" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5566,10 +5567,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F154" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5589,10 +5590,10 @@
         <v>60</v>
       </c>
       <c r="F155" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="G155" t="s">
-        <v>235</v>
+        <v>409</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5609,7 +5610,7 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5626,13 +5627,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="F157" t="s">
-        <v>494</v>
+        <v>352</v>
       </c>
       <c r="G157" t="s">
-        <v>495</v>
+        <v>353</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5649,16 +5650,16 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>411</v>
+      </c>
+      <c r="F158" t="s">
         <v>62</v>
       </c>
-      <c r="F158" t="s">
-        <v>63</v>
-      </c>
       <c r="G158" t="s">
-        <v>496</v>
+        <v>354</v>
       </c>
       <c r="H158" t="s">
-        <v>430</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5675,13 +5676,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>431</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G159" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5701,10 +5702,10 @@
         <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>238</v>
+        <v>413</v>
       </c>
       <c r="G160" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5721,13 +5722,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="F161" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="G161" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5744,7 +5745,7 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5761,10 +5762,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F163" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5781,7 +5782,7 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5801,10 +5802,10 @@
         <v>25</v>
       </c>
       <c r="F165" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="G165" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5824,10 +5825,10 @@
         <v>25</v>
       </c>
       <c r="F166" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="G166" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5847,7 +5848,7 @@
         <v>25</v>
       </c>
       <c r="F167" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5864,13 +5865,13 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F168" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G168" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5887,7 +5888,7 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5904,16 +5905,16 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F170" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="G170" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="H170" t="s">
-        <v>497</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5930,10 +5931,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F171" t="s">
-        <v>442</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5950,16 +5951,16 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="F172" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="G172" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="H172" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5979,10 +5980,10 @@
         <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>245</v>
+        <v>497</v>
       </c>
       <c r="G173" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5999,13 +6000,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="G174" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6022,10 +6023,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F175" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6042,13 +6043,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F176" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G176" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6065,13 +6066,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F177" t="s">
-        <v>468</v>
+        <v>329</v>
       </c>
       <c r="G177" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6088,7 +6089,7 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>469</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6105,13 +6106,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F179" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G179" t="s">
-        <v>470</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6128,7 +6129,7 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6145,13 +6146,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="F181" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G181" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6168,7 +6169,7 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6185,7 +6186,7 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>471</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6202,7 +6203,7 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>472</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6219,13 +6220,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="F185" t="s">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="G185" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6242,13 +6243,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="F186" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G186" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6265,7 +6266,7 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>473</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6282,13 +6283,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="F188" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="G188" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6305,16 +6306,16 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>474</v>
+        <v>335</v>
       </c>
       <c r="F189" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="G189" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H189" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6331,7 +6332,7 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6348,13 +6349,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="F191" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G191" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6371,7 +6372,7 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6388,7 +6389,7 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6405,7 +6406,7 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6422,13 +6423,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="F195" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="G195" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6445,13 +6446,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="F196" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="G196" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6468,7 +6469,7 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6485,7 +6486,7 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6502,13 +6503,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="F199" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="G199" t="s">
-        <v>477</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6525,7 +6526,7 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6542,13 +6543,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="F201" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="G201" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6565,7 +6566,7 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>449</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6582,7 +6583,7 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>479</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6599,16 +6600,16 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F204" t="s">
-        <v>499</v>
+        <v>355</v>
       </c>
       <c r="G204" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="H204" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6625,7 +6626,7 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>450</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6642,13 +6643,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="F206" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="G206" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6665,7 +6666,7 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6682,10 +6683,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="F208" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6702,13 +6703,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="F209" t="s">
-        <v>481</v>
+        <v>341</v>
       </c>
       <c r="G209" t="s">
-        <v>482</v>
+        <v>342</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6725,13 +6726,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="F210" t="s">
-        <v>483</v>
+        <v>343</v>
       </c>
       <c r="G210" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6748,10 +6749,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="F211" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6768,7 +6769,7 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6785,13 +6786,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>484</v>
+        <v>344</v>
       </c>
       <c r="F213" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="G213" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6808,13 +6809,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="F214" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="G214" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6831,13 +6832,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="F215" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="G215" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6854,7 +6855,7 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
